--- a/biology/Zoologie/Cleidopus/Cleidopus.xlsx
+++ b/biology/Zoologie/Cleidopus/Cleidopus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Poisson pomme de pin ou Poisson ananas (Cleidopus gloriamaris) est un poisson nocturne qui vit sur les côtes australiennes. C'est la seule espèce du genre Cleidopus (monotypique).
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson mesure jusqu'à 22 cm de long[1]. Il possède des organes sur le côté de la bouche qui contiennent des bactéries luminescentes. Il peut, à volonté, faire apparaître un signal lumineux. On pense que cela pourrait lui servir à communiquer et/ou à attirer des proies.
-Le jour il est à l'abri dans de petites grottes et la nuit il chasse et dévore des petites crevettes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson mesure jusqu'à 22 cm de long. Il possède des organes sur le côté de la bouche qui contiennent des bactéries luminescentes. Il peut, à volonté, faire apparaître un signal lumineux. On pense que cela pourrait lui servir à communiquer et/ou à attirer des proies.
+Le jour il est à l'abri dans de petites grottes et la nuit il chasse et dévore des petites crevettes.
 </t>
         </is>
       </c>
